--- a/Murray_Test1/Response-Renee-Murray.xlsx
+++ b/Murray_Test1/Response-Renee-Murray.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
   <si>
     <t>MT1</t>
   </si>
@@ -120,6 +120,9 @@
   </si>
   <si>
     <t>b, c, d</t>
+  </si>
+  <si>
+    <t>http://nbviewer.jupyter.org/github/ReneeMurray/TargetDataScienceTraining_Public/blob/master/Murray_Test1/DAMLAS-MidTerm-2016-07-11_Murray.ipynb</t>
   </si>
 </sst>
 </file>
@@ -506,8 +509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -626,6 +629,9 @@
       <c r="P2" t="s">
         <v>23</v>
       </c>
+      <c r="Q2" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="R2" t="s">
         <v>27</v>
       </c>
@@ -642,6 +648,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="U2" r:id="rId1"/>
+    <hyperlink ref="Q2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
